--- a/Documentation and User Testing/WebDevProject_userStories.xlsx
+++ b/Documentation and User Testing/WebDevProject_userStories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Owner/Desktop/WebDevProject-zrobinso/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Owner/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731BCD3-69E5-A54A-A612-1D5FEFE4BEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD8FD8A-7668-4948-B1EE-E018CEEF1592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26680" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="500" windowWidth="26680" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>...</t>
   </si>
@@ -160,14 +160,35 @@
     <t>I want to see the same colors, font size, and font logo consistancy used across all media</t>
   </si>
   <si>
-    <t>I want to find key information on field trips, city tours, the Incline’s history, visitor details, and gift shop products.</t>
+    <t>I want to see what is availible at the gift shop</t>
+  </si>
+  <si>
+    <t>So that I can plan my purchases</t>
+  </si>
+  <si>
+    <t>So that I can plan my trip.</t>
+  </si>
+  <si>
+    <t>I want to find information on other Pittsburgh events/tours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to find key information on the Incline’s history, and visitor details. </t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>I want to learn more about the Duquesne Incline field trip opportunities</t>
+  </si>
+  <si>
+    <t>So that I can plan a trip for my students.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -204,6 +225,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -293,9 +320,6 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -335,6 +359,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1526,15 +1553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.1640625" style="1" customWidth="1"/>
@@ -1543,229 +1570,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="6" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="11" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="13"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="13"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="13"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="13"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="13"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="4:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="4:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="4:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
